--- a/开发规范/中软万维交易开发规范 _ V1.1.xlsx
+++ b/开发规范/中软万维交易开发规范 _ V1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="658">
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,10 +202,6 @@
   </si>
   <si>
     <t>1000：没有可用的柜台连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负数：柜台返回的错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3527,10 +3523,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>windows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>osx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3688,10 +3680,6 @@
   </si>
   <si>
     <t>sywg_product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申银万国产品中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4507,14 +4495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4836,73 +4816,6 @@
     页面交易：传客户端外网IP；
     移动：传手机号；
 其它系统可不传。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>移动：IMEI+MAC。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待确认</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PC Web（安全控件模式）：CPU序列号+硬盘序列号+MAC地址+主板制造日期；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>例如：
-       “11110001067a80E5P7HPT           C8BCC88CD3EC11/07/11”
-        11110001067：CPU序列号
-        a80E5P7HPT           ：硬盘序列号
-        C8BCC88CD3EC：网卡MAC地址
-        11/07/11：主板制造日期
-PC Web（普通模式）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待考虑</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5407,10 +5320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cssweb_sysNo=njzq_jlp&lt;SOH&gt;cssweb_sysVer=iphone&lt;SOH&gt;cssweb_busiType=1&lt;SOH&gt;cssweb_funcid=101901&lt;SOH&gt;version=1.0&lt;SOH&gt;branch_no=3104&lt;SOH&gt;account_type=Z&lt;SOH&gt;account=1845250&lt;SOH&gt;content_type=&lt;SOH&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 行数：表示消息体的数据行数（注意：行数不包括数据域标识行，是真实数据的行数）；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5443,27 +5352,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>3）其余字段是柜台业务接口需要的字段；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>数据字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行数据缓存的功能标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基金公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5640,10 +5537,6 @@
   </si>
   <si>
     <t>cssweb_pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5761,10 +5654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   1）对输入的老密码、新密码使用安全控件进行加密；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">   3）网关返回修改成功后，flash更新内存中的密码为：第一步加密后的字串；</t>
     </r>
@@ -5795,23 +5684,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>（交易网关使用和安全控件、Weblogic相同的加密方式）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      修改密码成功后，网关返回格式说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（除了返回接口输出参数外，增加cssweb_pwd字段用于返回新密码加密串）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5840,10 +5712,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   ① 将要发送的请求数据按照“数据格式说明”sheet页中定义的格式拼接好后，再使用Base64进行编码；</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3）文本内容，是请求或者应答的真实数据，具体格式见：“数据格式说明”sheet页；</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5896,14 +5764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前仅限于flash交易在普通登录的时候使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   1）客户端发送明文到Weblogic，Weblogic使用和安全控件相同的方式加密，按照登录的柜台接口发送加密后的登录密码给交易网关；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密钥</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6012,12 +5872,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>2000：字段值在tradeparam.map中无法找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（使用顶点柜台时才会出现）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2001：功能号没有配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（使用顶点柜台时才会出现）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>njzq_wt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>njzq_zt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京证券掌厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京证券网厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据缓存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2000：字段值在tradeparam.map中无法找到</t>
+    <t>web交易-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1）通过JavaScript调用安全控件接口对输入的老密码、新密码进行加密；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：仅限flash交易使用，详见说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      修改密码成功后，网关返回格式说明：</t>
     </r>
     <r>
       <rPr>
@@ -6028,14 +5950,47 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（使用顶点柜台时才会出现）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2001：功能号没有配置</t>
-    </r>
+      <t>（除了返回柜台接口输出参数外，增加cssweb_pwd字段用于返回新密码加密串）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sywg_yht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申银万国一户通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申银万国产品中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前仅限于flash交易在普通登录的情况下使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ① 将要发送的请求数据按照“数据格式”sheet页中定义的格式拼接好后，再使用Base64进行编码；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜台连接号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：仅限flash交易使用，其它系统不传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6045,24 +6000,318 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（使用顶点柜台时才会出现）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>njzq_wt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>njzq_zt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京证券掌厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京证券网厅</t>
+      <t xml:space="preserve">注意：仅限于金仕达柜台使用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+此字段是0x101、0x111接口登录成功后返回，其它后续接口入参中必须送此字段和返回值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssweb_sysNo=njzq_jlp&lt;SOH&gt;cssweb_sysVer=iphone&lt;SOH&gt;cssweb_busiType=1&lt;SOH&gt;cssweb_funcid=101901&lt;SOH&gt;version=1.0&lt;SOH&gt;branch_no=3104&lt;SOH&gt;account_type=Z&lt;SOH&gt;account=1845250&lt;SOH&gt;content_type=&lt;SOH&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1）客户端浏览器发送明文到Weblogic，Weblogic使用和安全控件相同的方式加密，按照登录的柜台接口发送加密后的登录密码给交易网关；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1）客户端浏览器发送明文的老密码、新密码到Weblogic，Weblogic使用和安全控件相同的方式加密；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移动：IMEI+MAC。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待确认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PC Web（安全控件模式）：CPU序列号+硬盘序列号+MAC地址+主板制造日期；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>例如：
+       “11110001067a80E5P7HPT           C8BCC88CD3EC11/07/11”
+        11110001067：CPU序列号
+        a80E5P7HPT           ：硬盘序列号
+        C8BCC88CD3EC：网卡MAC地址
+        11/07/11：主板制造日期
+PC Web（普通模式）：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待考虑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssweb_sysNo=sywg_yht&lt;SOH&gt;cssweb_sysVer=windows&lt;SOH&gt;cssweb_busiType=4&lt;SOH&gt;cssweb_funcid=userLogin&lt;SOH&gt;cssweb_hardinfo=127.0.0.1&lt;SOH&gt;custid=1653037355&lt;SOH&gt;userpass=111111&lt;SOH&gt;idtype=1&lt;SOH&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）cssweb_sysNo，为必传的自定义字段，含义见“自定义字段”；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）cssweb_busiType，为必传的自定义字段，含义见“自定义字段”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssweb_sysNo=sywg_yht&lt;SOH&gt;cssweb_sysVer=windows&lt;SOH&gt;cssweb_busiType=1&lt;SOH&gt;cssweb_funcid=0x111&lt;SOH&gt;cssweb_hardinfo=127.0.0.1&lt;SOH&gt;account_type=0&lt;SOH&gt;account=1655129869&lt;SOH&gt;pwd=246135&lt;SOH&gt;op_code=0&lt;SOH&gt;flag=0&lt;SOH&gt;productno=C2-4-20&lt;SOH&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据字典。注：参数值是预先分配的固定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含：自定义功能号，及各柜台接口功能号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）cssweb_sysVer，为必传的自定义字段，含义见“自定义字段”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）0x111登录接口，调用成功后会返回“cssweb_connid”自定义字段，为后续所有非登录接口使用；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cssweb_sysNo=sywg_yht&lt;SOH&gt;cssweb_sysVer=web&lt;SOH&gt;cssweb_busiType=1&lt;SOH&gt;cssweb_funcid=0x400&lt;SOH&gt;cssweb_hardinfo=127.0.0.1&lt;SOH&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cssweb_connid=1655129869_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;SOH&gt;custid=1653037355&lt;SOH&gt;userpass=111111&lt;SOH&gt;idtype=1&lt;SOH&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1&lt;SOH&gt;14&lt;SOH&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cssweb_connid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;SOH&gt;bankbook_number&lt;SOH&gt;account_status&lt;SOH&gt;name&lt;SOH&gt;id&lt;SOH&gt;card_version&lt;SOH&gt;customer_flag&lt;SOH&gt;Cust_flag&lt;SOH&gt;Cust_risk_type&lt;SOH&gt;
+depart_number&lt;SOH&gt;last_login_date&lt;SOH&gt;last_login_time&lt;SOH&gt;last_full_note&lt;SOH&gt;reserved_auth_info&lt;SOH&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1655129869_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;SOH&gt;129869&lt;SOH&gt;0&lt;SOH&gt;1655129869&lt;SOH&gt;310112198304010313&lt;SOH&gt;1&lt;SOH&gt;M&lt;SOH&gt; &lt;SOH&gt; &lt;SOH&gt;1655&lt;SOH&gt; &lt;SOH&gt; &lt;SOH&gt;20131211,12:26:13,WSWT,0127.0.0.1-null&lt;SOH&gt;adbbb&lt;SOH&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）其余字段是接口的业务入参，详细情况请参考文档“申银万国外围交易系统协议接口标准”；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）cssweb_funcid，为必传的自定义字段，标识调用的功能号。此处传值为：金仕达柜台接口功能号，详细情况请参考文档“申银万国外围交易系统协议接口标准”；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）cssweb_connid，为必传的自定义字段，是柜台的连接号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fundList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）cssweb_funcid，为必传的自定义字段，标识调用的功能号。传值为：新意接口名称（上面例子中值为“userLogin”），接口名称请参考文档“申银万国集中客户账户系统客户服务接口标准”；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）其余字段是新意接口的业务入参，详细情况请参考文档“申银万国集中客户账户系统客户服务接口标准”；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）cssweb_cacheFlag，查询缓存的功能标识符，含义见“自定义字段”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）其余字段是柜台业务接口需要的字段；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）cssweb_funcid，为必传的自定义字段，是如果没有缓存的情况下调用柜台的接口功能号。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6）其余字段是柜台接口需要的字段；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssweb_sysNo=njzq_flash&lt;SOH&gt;cssweb_sysVer=flash&lt;SOH&gt;cssweb_busiType=1&lt;SOH&gt;cssweb_cacheFlag=fundList&lt;SOH&gt;cssweb_funcid=121101&lt;SOH&gt;version=1.0&lt;SOH&gt;branch_no=3104&lt;SOH&gt;account_type=Z&lt;SOH&gt;account=1845250&lt;SOH&gt;content_type=&lt;SOH&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4）cssweb_hardinfo，为必传的自定义字段，含义见“自定义字段”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5）cssweb_funcid，为必传的自定义字段，标识调用的功能号。此处传值为：金仕达柜台接口功能号，详细情况请参考文档“申银万国外围交易系统协议接口标准”；</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万-新意账户系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：申万-新意账户系统 的入参说明；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万-金仕达柜台-登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：申万-金仕达柜台-登录 的说明；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万-金仕达柜台-非登录接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：申万-金仕达柜台-非登录接口 的入参说明；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cssweb_connid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：金仕达柜台，返回连接号字段“cssweb_connid”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它数字：柜台返回的错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6070,7 +6319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6364,6 +6613,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -7076,7 +7333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7389,9 +7646,6 @@
     <xf numFmtId="49" fontId="34" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7558,6 +7812,27 @@
     </xf>
     <xf numFmtId="49" fontId="30" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8227,39 +8502,39 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:7" ht="33.75">
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="182" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+    </row>
+    <row r="11" spans="5:7" ht="33.75">
+      <c r="E11" s="182" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+    </row>
+    <row r="14" spans="5:7" ht="18.75">
+      <c r="E14" s="183" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-    </row>
-    <row r="11" spans="5:7" ht="33.75">
-      <c r="E11" s="176" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-    </row>
-    <row r="14" spans="5:7" ht="18.75">
-      <c r="E14" s="177" t="s">
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+    </row>
+    <row r="15" spans="5:7" ht="18.75">
+      <c r="E15" s="183" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-    </row>
-    <row r="15" spans="5:7" ht="18.75">
-      <c r="E15" s="177" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
     </row>
     <row r="16" spans="5:7" ht="18.75">
-      <c r="E16" s="178">
+      <c r="E16" s="184">
         <v>41415</v>
       </c>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
     </row>
     <row r="20" spans="6:6" s="58" customFormat="1">
       <c r="F20" s="57"/>
@@ -8284,7 +8559,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8302,57 +8577,57 @@
       <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="235" t="s">
-        <v>587</v>
-      </c>
-      <c r="D3" s="236"/>
+      <c r="C3" s="241" t="s">
+        <v>571</v>
+      </c>
+      <c r="D3" s="242"/>
       <c r="E3" s="14" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1">
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="233" t="s">
-        <v>586</v>
-      </c>
-      <c r="D4" s="234"/>
+      <c r="C4" s="239" t="s">
+        <v>570</v>
+      </c>
+      <c r="D4" s="240"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1">
       <c r="B5" s="71"/>
-      <c r="C5" s="237" t="s">
-        <v>590</v>
-      </c>
-      <c r="D5" s="238"/>
-      <c r="E5" s="174" t="s">
-        <v>588</v>
+      <c r="C5" s="243" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="244"/>
+      <c r="E5" s="173" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1">
       <c r="B6" s="77"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="175"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="174"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1">
       <c r="B7" s="77"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="175"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="174"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1">
       <c r="B8" s="77"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="175"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="174"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="21"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="157"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8396,16 +8671,16 @@
         <v>30</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>409</v>
-      </c>
-      <c r="G2" s="126" t="s">
-        <v>401</v>
-      </c>
-      <c r="H2" s="125" t="s">
-        <v>402</v>
+        <v>407</v>
+      </c>
+      <c r="F2" s="126" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="125" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1">
@@ -8413,53 +8688,53 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="128" t="s">
-        <v>410</v>
-      </c>
-      <c r="F3" s="129" t="s">
-        <v>407</v>
-      </c>
-      <c r="G3" s="130" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="127" t="s">
         <v>404</v>
       </c>
-      <c r="H3" s="131" t="s">
-        <v>400</v>
+      <c r="F3" s="128" t="s">
+        <v>401</v>
+      </c>
+      <c r="G3" s="129" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3" s="130" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1">
       <c r="B4" s="17"/>
       <c r="C4" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>411</v>
-      </c>
-      <c r="F4" s="129" t="s">
         <v>408</v>
       </c>
-      <c r="G4" s="130" t="s">
-        <v>404</v>
-      </c>
-      <c r="H4" s="131" t="s">
+      <c r="E4" s="127" t="s">
         <v>405</v>
+      </c>
+      <c r="F4" s="128" t="s">
+        <v>402</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="130" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1" thickBot="1">
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
-      <c r="E5" s="135" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="132" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" s="133" t="s">
+      <c r="E5" s="134" t="s">
         <v>406</v>
       </c>
-      <c r="H5" s="134" t="s">
-        <v>405</v>
+      <c r="F5" s="131" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="132" t="s">
+        <v>400</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" customHeight="1">
@@ -8467,19 +8742,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="168">
       <c r="B8" s="17"/>
-      <c r="C8" s="120" t="s">
-        <v>415</v>
+      <c r="C8" s="119" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18" customHeight="1">
@@ -8491,25 +8766,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="17"/>
       <c r="C11" s="19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="18" customHeight="1">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="18" customHeight="1">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="18" customHeight="1">
@@ -8572,11 +8847,11 @@
       <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="241" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
+      <c r="E2" s="247" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4" t="s">
@@ -8616,7 +8891,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -8632,10 +8907,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
@@ -8648,10 +8923,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
@@ -8669,7 +8944,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -8682,10 +8957,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="5" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -8698,13 +8973,13 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -8712,10 +8987,10 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>25</v>
@@ -8729,10 +9004,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -8754,38 +9029,38 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="5" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -8793,10 +9068,10 @@
         <v>21</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -8806,17 +9081,17 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -8829,124 +9104,124 @@
       <c r="G18" s="5"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="121" t="s">
-        <v>384</v>
-      </c>
-      <c r="C20" s="122" t="s">
-        <v>386</v>
-      </c>
-      <c r="D20" s="123" t="s">
+      <c r="B20" s="120" t="s">
+        <v>378</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="248" t="s">
-        <v>385</v>
-      </c>
-      <c r="F20" s="248"/>
-      <c r="G20" s="248"/>
+      <c r="E20" s="254" t="s">
+        <v>379</v>
+      </c>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
     </row>
     <row r="21" spans="2:7" ht="201.75" customHeight="1">
-      <c r="B21" s="249" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="255" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="242" t="s">
+      <c r="B23" s="248" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="250"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="120" t="s">
         <v>382</v>
       </c>
-      <c r="C23" s="243"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="244"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="121" t="s">
-        <v>388</v>
-      </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="123" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="120" t="s">
         <v>383</v>
       </c>
-      <c r="D24" s="121" t="s">
-        <v>389</v>
-      </c>
-      <c r="E24" s="253" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="253"/>
-      <c r="G24" s="253"/>
+      <c r="E24" s="259" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" s="259"/>
+      <c r="G24" s="259"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="254" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" s="254"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
+      <c r="B25" s="260" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="260"/>
     </row>
     <row r="26" spans="2:7" ht="124.5" customHeight="1">
-      <c r="B26" s="251" t="s">
-        <v>398</v>
-      </c>
-      <c r="C26" s="252"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
+      <c r="B26" s="257" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="258"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="255"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="257"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="263"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="245"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="246"/>
-      <c r="G28" s="247"/>
+      <c r="B28" s="251"/>
+      <c r="C28" s="252"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="253"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="245"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="246"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="247"/>
+      <c r="B29" s="251"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="252"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="253"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="245"/>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="247"/>
+      <c r="B30" s="251"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="253"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="245"/>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="247"/>
+      <c r="B31" s="251"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="253"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="245"/>
-      <c r="C32" s="246"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="246"/>
-      <c r="F32" s="246"/>
-      <c r="G32" s="247"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8998,39 +9273,39 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="67.5">
+      <c r="B3" s="265" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="67.5">
-      <c r="B3" s="259" t="s">
-        <v>85</v>
-      </c>
       <c r="C3" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
@@ -9039,12 +9314,12 @@
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9" ht="108">
-      <c r="B4" s="259"/>
+      <c r="B4" s="265"/>
       <c r="C4" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
@@ -9053,38 +9328,38 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="2:9" ht="108">
-      <c r="B5" s="259"/>
+      <c r="B5" s="265"/>
       <c r="C5" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>113</v>
-      </c>
       <c r="H5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="43" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="259" t="s">
-        <v>87</v>
+      <c r="B6" s="265" t="s">
+        <v>86</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
@@ -9093,38 +9368,38 @@
       <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="115.5">
-      <c r="B7" s="259"/>
+      <c r="B7" s="265"/>
       <c r="C7" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>113</v>
-      </c>
       <c r="H7" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="258" t="s">
-        <v>88</v>
+      <c r="B8" s="264" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -9133,38 +9408,38 @@
       <c r="I8" s="49"/>
     </row>
     <row r="9" spans="2:9" ht="54">
-      <c r="B9" s="258"/>
+      <c r="B9" s="264"/>
       <c r="C9" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E9" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>113</v>
-      </c>
       <c r="H9" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="259" t="s">
-        <v>89</v>
+      <c r="B10" s="265" t="s">
+        <v>88</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
@@ -9173,38 +9448,38 @@
       <c r="I10" s="32"/>
     </row>
     <row r="11" spans="2:9" ht="129">
-      <c r="B11" s="259"/>
+      <c r="B11" s="265"/>
       <c r="C11" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>113</v>
-      </c>
       <c r="H11" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="40.5">
       <c r="B12" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
@@ -9214,13 +9489,13 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
@@ -9229,14 +9504,14 @@
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9" ht="40.5">
-      <c r="B14" s="259" t="s">
-        <v>92</v>
+      <c r="B14" s="265" t="s">
+        <v>91</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -9245,38 +9520,38 @@
       <c r="I14" s="32"/>
     </row>
     <row r="15" spans="2:9" ht="121.5">
-      <c r="B15" s="259"/>
+      <c r="B15" s="265"/>
       <c r="C15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="H15" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="16" spans="2:9" ht="27">
-      <c r="B16" s="259" t="s">
-        <v>93</v>
+      <c r="B16" s="265" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -9285,38 +9560,38 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="2:9" ht="115.5">
-      <c r="B17" s="259"/>
+      <c r="B17" s="265"/>
       <c r="C17" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E17" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>113</v>
-      </c>
       <c r="H17" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="258" t="s">
-        <v>94</v>
+      <c r="B18" s="264" t="s">
+        <v>93</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
@@ -9325,38 +9600,38 @@
       <c r="I18" s="49"/>
     </row>
     <row r="19" spans="2:9" ht="115.5">
-      <c r="B19" s="258"/>
+      <c r="B19" s="264"/>
       <c r="C19" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="H19" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="258" t="s">
-        <v>95</v>
+      <c r="B20" s="264" t="s">
+        <v>94</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="51"/>
@@ -9365,38 +9640,38 @@
       <c r="I20" s="49"/>
     </row>
     <row r="21" spans="2:9" ht="175.5">
-      <c r="B21" s="258"/>
+      <c r="B21" s="264"/>
       <c r="C21" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="51" t="s">
-        <v>113</v>
-      </c>
       <c r="H21" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
@@ -9405,14 +9680,14 @@
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" ht="94.5">
-      <c r="B23" s="259" t="s">
-        <v>97</v>
+      <c r="B23" s="265" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
@@ -9421,38 +9696,38 @@
       <c r="I23" s="32"/>
     </row>
     <row r="24" spans="2:9" ht="162">
-      <c r="B24" s="259"/>
+      <c r="B24" s="265"/>
       <c r="C24" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I24" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="43" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="25" spans="2:9" ht="54">
-      <c r="B25" s="258" t="s">
-        <v>98</v>
+      <c r="B25" s="264" t="s">
+        <v>97</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
@@ -9461,25 +9736,25 @@
       <c r="I25" s="49"/>
     </row>
     <row r="26" spans="2:9" ht="108">
-      <c r="B26" s="258"/>
+      <c r="B26" s="264"/>
       <c r="C26" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H26" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9520,41 +9795,41 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="54">
       <c r="B3" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>39</v>
@@ -9562,41 +9837,41 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="40.5">
       <c r="B7" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>39</v>
@@ -9604,21 +9879,21 @@
     </row>
     <row r="8" spans="2:5" ht="54">
       <c r="B8" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
@@ -9626,91 +9901,91 @@
     </row>
     <row r="10" spans="2:5" ht="67.5">
       <c r="B10" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="67.5">
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="54">
       <c r="B14" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="E14" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
@@ -9718,7 +9993,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -9732,10 +10007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1"/>
@@ -9754,246 +10029,246 @@
     <row r="1" spans="2:8" ht="15.95" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="15.95" customHeight="1">
       <c r="B2" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="188" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="191" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" s="182" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="183"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="2:8" ht="15.95" customHeight="1">
       <c r="B3" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="179" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="187"/>
+        <v>265</v>
+      </c>
+      <c r="C3" s="185" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="193"/>
     </row>
     <row r="4" spans="2:8" ht="15.95" customHeight="1">
       <c r="B4" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="179" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="187"/>
+        <v>264</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="193"/>
     </row>
     <row r="5" spans="2:8" ht="15.95" customHeight="1">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="190" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="185"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="193"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B6" s="191"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="193"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B7" s="191"/>
+      <c r="C7" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="187"/>
-    </row>
-    <row r="6" spans="2:8" ht="15.95" customHeight="1">
-      <c r="B6" s="185"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="187"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.95" customHeight="1">
-      <c r="B7" s="185"/>
-      <c r="C7" s="64" t="s">
+      <c r="D7" s="185" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="187"/>
+      <c r="F7" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="179" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="64" t="s">
+      <c r="G7" s="194">
+        <v>41415</v>
+      </c>
+      <c r="H7" s="193"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B8" s="191"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="193"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B9" s="191"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="193"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B10" s="192"/>
+      <c r="C10" s="65" t="s">
         <v>160</v>
-      </c>
-      <c r="G7" s="188">
-        <v>41415</v>
-      </c>
-      <c r="H7" s="187"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.95" customHeight="1">
-      <c r="B8" s="185"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="187"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.95" customHeight="1">
-      <c r="B9" s="185"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="187"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B10" s="186"/>
-      <c r="C10" s="65" t="s">
-        <v>161</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="189"/>
-      <c r="H10" s="190"/>
+        <v>161</v>
+      </c>
+      <c r="G10" s="195"/>
+      <c r="H10" s="196"/>
     </row>
     <row r="12" spans="2:8" ht="15.95" customHeight="1" thickBot="1"/>
     <row r="13" spans="2:8" ht="15.95" customHeight="1">
       <c r="B13" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="200" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="F13" s="201"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="84" t="s">
         <v>271</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="194" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="195"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="84" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.95" customHeight="1">
       <c r="B14" s="86"/>
       <c r="C14" s="64"/>
       <c r="D14" s="91"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
       <c r="H14" s="89"/>
     </row>
     <row r="15" spans="2:8" ht="15.95" customHeight="1">
       <c r="B15" s="86" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C15" s="87">
-        <v>41533</v>
+        <v>41619</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="E15" s="179" t="s">
-        <v>592</v>
-      </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181"/>
+        <v>277</v>
+      </c>
+      <c r="E15" s="185" t="s">
+        <v>656</v>
+      </c>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187"/>
       <c r="H15" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.95" customHeight="1">
       <c r="B16" s="86"/>
       <c r="C16" s="87">
-        <v>41530</v>
+        <v>41619</v>
       </c>
       <c r="D16" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" s="179" t="s">
-        <v>541</v>
-      </c>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181"/>
+        <v>345</v>
+      </c>
+      <c r="E16" s="185" t="s">
+        <v>652</v>
+      </c>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
       <c r="H16" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.95" customHeight="1">
       <c r="B17" s="86"/>
       <c r="C17" s="87">
-        <v>41529</v>
+        <v>41619</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="179" t="s">
-        <v>535</v>
-      </c>
-      <c r="F17" s="180"/>
-      <c r="G17" s="181"/>
+        <v>345</v>
+      </c>
+      <c r="E17" s="185" t="s">
+        <v>654</v>
+      </c>
+      <c r="F17" s="186"/>
+      <c r="G17" s="187"/>
       <c r="H17" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.95" customHeight="1">
       <c r="B18" s="86"/>
       <c r="C18" s="87">
-        <v>41529</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="E18" s="179" t="s">
-        <v>537</v>
-      </c>
-      <c r="F18" s="180"/>
-      <c r="G18" s="181"/>
+        <v>41619</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="185" t="s">
+        <v>650</v>
+      </c>
+      <c r="F18" s="186"/>
+      <c r="G18" s="187"/>
       <c r="H18" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.95" customHeight="1">
       <c r="B19" s="86"/>
       <c r="C19" s="87">
-        <v>41529</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="E19" s="179" t="s">
-        <v>540</v>
-      </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="181"/>
+        <v>41533</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="185" t="s">
+        <v>576</v>
+      </c>
+      <c r="F19" s="186"/>
+      <c r="G19" s="187"/>
       <c r="H19" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.95" customHeight="1">
       <c r="B20" s="86"/>
       <c r="C20" s="87">
-        <v>41529</v>
+        <v>41530</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>505</v>
-      </c>
-      <c r="E20" s="179" t="s">
-        <v>533</v>
-      </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181"/>
+        <v>345</v>
+      </c>
+      <c r="E20" s="185" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" s="186"/>
+      <c r="G20" s="187"/>
       <c r="H20" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.95" customHeight="1">
@@ -10001,254 +10276,254 @@
       <c r="C21" s="87">
         <v>41529</v>
       </c>
-      <c r="D21" s="93" t="s">
-        <v>505</v>
-      </c>
-      <c r="E21" s="179" t="s">
-        <v>506</v>
-      </c>
-      <c r="F21" s="180"/>
-      <c r="G21" s="181"/>
+      <c r="D21" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="185" t="s">
+        <v>524</v>
+      </c>
+      <c r="F21" s="186"/>
+      <c r="G21" s="187"/>
       <c r="H21" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.95" customHeight="1">
       <c r="B22" s="86"/>
       <c r="C22" s="87">
-        <v>41520</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>280</v>
-      </c>
-      <c r="E22" s="179" t="s">
-        <v>501</v>
-      </c>
-      <c r="F22" s="180"/>
-      <c r="G22" s="181"/>
+        <v>41529</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="185" t="s">
+        <v>526</v>
+      </c>
+      <c r="F22" s="186"/>
+      <c r="G22" s="187"/>
       <c r="H22" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.95" customHeight="1">
       <c r="B23" s="86"/>
       <c r="C23" s="87">
-        <v>41520</v>
+        <v>41529</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="179" t="s">
-        <v>502</v>
-      </c>
-      <c r="F23" s="180"/>
-      <c r="G23" s="181"/>
+        <v>345</v>
+      </c>
+      <c r="E23" s="185" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="186"/>
+      <c r="G23" s="187"/>
       <c r="H23" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.95" customHeight="1">
       <c r="B24" s="86"/>
       <c r="C24" s="87">
-        <v>41477</v>
+        <v>41529</v>
       </c>
       <c r="D24" s="93" t="s">
-        <v>417</v>
-      </c>
-      <c r="E24" s="197" t="s">
-        <v>463</v>
-      </c>
-      <c r="F24" s="180"/>
-      <c r="G24" s="181"/>
+        <v>495</v>
+      </c>
+      <c r="E24" s="185" t="s">
+        <v>522</v>
+      </c>
+      <c r="F24" s="186"/>
+      <c r="G24" s="187"/>
       <c r="H24" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.95" customHeight="1">
       <c r="B25" s="86"/>
       <c r="C25" s="87">
-        <v>41477</v>
+        <v>41529</v>
       </c>
       <c r="D25" s="93" t="s">
-        <v>419</v>
-      </c>
-      <c r="E25" s="197" t="s">
-        <v>418</v>
-      </c>
-      <c r="F25" s="180"/>
-      <c r="G25" s="181"/>
+        <v>495</v>
+      </c>
+      <c r="E25" s="185" t="s">
+        <v>496</v>
+      </c>
+      <c r="F25" s="186"/>
+      <c r="G25" s="187"/>
       <c r="H25" s="89" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="25.5" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.95" customHeight="1">
       <c r="B26" s="86"/>
       <c r="C26" s="87">
-        <v>41428</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="197" t="s">
-        <v>365</v>
-      </c>
-      <c r="F26" s="180"/>
-      <c r="G26" s="181"/>
+        <v>41520</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" s="185" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" s="186"/>
+      <c r="G26" s="187"/>
       <c r="H26" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.95" customHeight="1">
       <c r="B27" s="86"/>
       <c r="C27" s="87">
-        <v>41422</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>350</v>
-      </c>
-      <c r="E27" s="179" t="s">
-        <v>351</v>
-      </c>
-      <c r="F27" s="180"/>
-      <c r="G27" s="181"/>
+        <v>41520</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="185" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" s="186"/>
+      <c r="G27" s="187"/>
       <c r="H27" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.95" customHeight="1">
       <c r="B28" s="86"/>
       <c r="C28" s="87">
-        <v>41422</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E28" s="179" t="s">
-        <v>339</v>
-      </c>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181"/>
+        <v>41477</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="203" t="s">
+        <v>457</v>
+      </c>
+      <c r="F28" s="186"/>
+      <c r="G28" s="187"/>
       <c r="H28" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.95" customHeight="1">
       <c r="B29" s="86"/>
       <c r="C29" s="87">
-        <v>41422</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="179" t="s">
-        <v>340</v>
-      </c>
-      <c r="F29" s="180"/>
-      <c r="G29" s="181"/>
+        <v>41477</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" s="203" t="s">
+        <v>412</v>
+      </c>
+      <c r="F29" s="186"/>
+      <c r="G29" s="187"/>
       <c r="H29" s="89" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.95" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="25.5" customHeight="1">
       <c r="B30" s="86"/>
       <c r="C30" s="87">
-        <v>41421</v>
-      </c>
-      <c r="D30" s="93" t="s">
-        <v>417</v>
-      </c>
-      <c r="E30" s="179" t="s">
-        <v>308</v>
-      </c>
-      <c r="F30" s="180"/>
-      <c r="G30" s="181"/>
+        <v>41428</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="203" t="s">
+        <v>359</v>
+      </c>
+      <c r="F30" s="186"/>
+      <c r="G30" s="187"/>
       <c r="H30" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.95" customHeight="1">
       <c r="B31" s="86"/>
       <c r="C31" s="87">
-        <v>41421</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="179" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="180"/>
-      <c r="G31" s="181"/>
+        <v>41422</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="185" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="186"/>
+      <c r="G31" s="187"/>
       <c r="H31" s="89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.95" customHeight="1">
       <c r="B32" s="86"/>
       <c r="C32" s="87">
-        <v>41416</v>
+        <v>41422</v>
       </c>
       <c r="D32" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="179" t="s">
-        <v>495</v>
-      </c>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181"/>
+        <v>277</v>
+      </c>
+      <c r="E32" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="186"/>
+      <c r="G32" s="187"/>
       <c r="H32" s="89" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.95" customHeight="1">
       <c r="B33" s="86"/>
       <c r="C33" s="87">
-        <v>41416</v>
+        <v>41422</v>
       </c>
       <c r="D33" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="E33" s="179" t="s">
-        <v>303</v>
-      </c>
-      <c r="F33" s="180"/>
-      <c r="G33" s="181"/>
+        <v>275</v>
+      </c>
+      <c r="E33" s="185" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="186"/>
+      <c r="G33" s="187"/>
       <c r="H33" s="89" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15.95" customHeight="1">
       <c r="B34" s="86"/>
       <c r="C34" s="87">
-        <v>41416</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="E34" s="179" t="s">
+        <v>41421</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E34" s="185" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="180"/>
-      <c r="G34" s="181"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="187"/>
       <c r="H34" s="89" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15.95" customHeight="1">
       <c r="B35" s="86"/>
       <c r="C35" s="87">
-        <v>41416</v>
+        <v>41421</v>
       </c>
       <c r="D35" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" s="179" t="s">
-        <v>294</v>
-      </c>
-      <c r="F35" s="180"/>
-      <c r="G35" s="181"/>
+        <v>277</v>
+      </c>
+      <c r="E35" s="185" t="s">
+        <v>321</v>
+      </c>
+      <c r="F35" s="186"/>
+      <c r="G35" s="187"/>
       <c r="H35" s="89" t="s">
-        <v>283</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.95" customHeight="1">
@@ -10257,15 +10532,15 @@
         <v>41416</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>278</v>
-      </c>
-      <c r="E36" s="179" t="s">
-        <v>306</v>
-      </c>
-      <c r="F36" s="180"/>
-      <c r="G36" s="181"/>
+        <v>277</v>
+      </c>
+      <c r="E36" s="185" t="s">
+        <v>485</v>
+      </c>
+      <c r="F36" s="186"/>
+      <c r="G36" s="187"/>
       <c r="H36" s="89" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.95" customHeight="1">
@@ -10274,74 +10549,140 @@
         <v>41416</v>
       </c>
       <c r="D37" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="E37" s="185" t="s">
+        <v>300</v>
+      </c>
+      <c r="F37" s="186"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B38" s="86"/>
+      <c r="C38" s="87">
+        <v>41416</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="185" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" s="186"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B39" s="86"/>
+      <c r="C39" s="87">
+        <v>41416</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="179" t="s">
-        <v>300</v>
-      </c>
-      <c r="F37" s="180"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="89" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15.95" customHeight="1">
-      <c r="B38" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="C38" s="87">
+      <c r="F39" s="186"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B40" s="86"/>
+      <c r="C40" s="87">
+        <v>41416</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="185" t="s">
+        <v>303</v>
+      </c>
+      <c r="F40" s="186"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B41" s="86"/>
+      <c r="C41" s="87">
+        <v>41416</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="185" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="186"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.95" customHeight="1">
+      <c r="B42" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="87">
         <v>41415</v>
       </c>
-      <c r="D38" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="179" t="s">
-        <v>275</v>
-      </c>
-      <c r="F38" s="180"/>
-      <c r="G38" s="181"/>
-      <c r="H38" s="89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B39" s="88"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="199"/>
-      <c r="H39" s="90"/>
+      <c r="D42" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="185" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="186"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B43" s="88"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="205"/>
+      <c r="H43" s="90"/>
     </row>
   </sheetData>
   <sheetProtection password="E5A6" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="39">
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E25:G25"/>
+  <mergeCells count="43">
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E42:G42"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -10349,38 +10690,48 @@
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="D7:E7"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D35" location="数据格式说明!A1" display="数据格式说明"/>
-    <hyperlink ref="D36" location="数据格式说明!A1" display="数据格式说明"/>
-    <hyperlink ref="D37" location="数据字典!A1" display="数据字典"/>
-    <hyperlink ref="D34" location="自定义字段!A1" display="自定义字段"/>
-    <hyperlink ref="D33" location="自定义字段!A1" display="自定义字段"/>
+    <hyperlink ref="D39" location="数据格式说明!A1" display="数据格式说明"/>
+    <hyperlink ref="D40" location="数据格式说明!A1" display="数据格式说明"/>
+    <hyperlink ref="D41" location="数据字典!A1" display="数据字典"/>
+    <hyperlink ref="D38" location="自定义字段!A1" display="自定义字段"/>
+    <hyperlink ref="D37" location="自定义字段!A1" display="自定义字段"/>
+    <hyperlink ref="D36" location="自定义字段!A1" display="自定义字段"/>
+    <hyperlink ref="D34" location="自定义功能列表!A1" display="自定义功能"/>
+    <hyperlink ref="D35" location="自定义字段!A1" display="自定义字段"/>
     <hyperlink ref="D32" location="自定义字段!A1" display="自定义字段"/>
-    <hyperlink ref="D30" location="自定义功能列表!A1" display="自定义功能"/>
-    <hyperlink ref="D31" location="自定义字段!A1" display="自定义字段"/>
-    <hyperlink ref="D28" location="自定义字段!A1" display="自定义字段"/>
-    <hyperlink ref="D29" location="数据格式说明!A1" display="数据格式说明"/>
-    <hyperlink ref="D27" location="约定释义!B14" display="约定释义"/>
-    <hyperlink ref="D26" location="自定义字段!A1" display="自定义字段"/>
-    <hyperlink ref="D25" location="自定义功能接口!A1" display="自定义功能接口"/>
-    <hyperlink ref="D24" location="自定义功能列表!A1" display="自定义功能"/>
-    <hyperlink ref="D22" location="自定义字段!B18" display="自定义字段"/>
-    <hyperlink ref="D23" location="数据字典!A1" display="数据字典"/>
-    <hyperlink ref="D21" location="自定义字段!B9" display="自定义字段"/>
-    <hyperlink ref="D20" location="自定义字段!B19" display="自定义字段"/>
-    <hyperlink ref="D19" location="约定释义!B47" display="约定释义"/>
-    <hyperlink ref="D18" location="约定释义!B36" display="约定释义"/>
-    <hyperlink ref="D17" location="约定释义!B26" display="约定释义"/>
-    <hyperlink ref="D16" location="约定释义!B47" display="约定释义"/>
-    <hyperlink ref="D15" location="约定释义!B34" display="约定释义"/>
+    <hyperlink ref="D33" location="数据格式说明!A1" display="数据格式说明"/>
+    <hyperlink ref="D31" location="约定释义!B14" display="约定释义"/>
+    <hyperlink ref="D30" location="自定义字段!A1" display="自定义字段"/>
+    <hyperlink ref="D29" location="自定义功能接口!A1" display="自定义功能接口"/>
+    <hyperlink ref="D28" location="自定义功能列表!A1" display="自定义功能"/>
+    <hyperlink ref="D26" location="自定义字段!B18" display="自定义字段"/>
+    <hyperlink ref="D27" location="数据字典!A1" display="数据字典"/>
+    <hyperlink ref="D25" location="自定义字段!B9" display="自定义字段"/>
+    <hyperlink ref="D24" location="自定义字段!B19" display="自定义字段"/>
+    <hyperlink ref="D23" location="约定释义!B47" display="约定释义"/>
+    <hyperlink ref="D22" location="约定释义!B36" display="约定释义"/>
+    <hyperlink ref="D21" location="约定释义!B26" display="约定释义"/>
+    <hyperlink ref="D20" location="约定释义!B47" display="约定释义"/>
+    <hyperlink ref="D19" location="约定释义!B34" display="约定释义"/>
+    <hyperlink ref="D18" location="约定释义!B97" display="约定释义"/>
+    <hyperlink ref="D16" location="约定释义!B110" display="约定释义"/>
+    <hyperlink ref="D17" location="约定释义!B129" display="约定释义"/>
+    <hyperlink ref="D15" location="自定义字段!B20" display="自定义字段"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10391,8 +10742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10417,19 +10768,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18" customHeight="1">
       <c r="B5" s="17"/>
       <c r="C5" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="18" customHeight="1">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:3" s="66" customFormat="1" ht="18" customHeight="1">
@@ -10439,19 +10790,19 @@
     <row r="8" spans="2:3" s="66" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="2:3" s="66" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:3" s="66" customFormat="1" ht="18" customHeight="1">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18" customHeight="1">
@@ -10463,19 +10814,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="18" customHeight="1">
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="18" customHeight="1">
       <c r="B14" s="17"/>
       <c r="C14" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18" customHeight="1">
@@ -10485,43 +10836,43 @@
     <row r="16" spans="2:3" ht="18" customHeight="1">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18" customHeight="1">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18" customHeight="1">
       <c r="B18" s="17"/>
-      <c r="C18" s="169" t="s">
-        <v>568</v>
+      <c r="C18" s="168" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18" customHeight="1">
       <c r="B19" s="17"/>
-      <c r="C19" s="169" t="s">
-        <v>570</v>
+      <c r="C19" s="168" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="C20" s="170" t="s">
-        <v>569</v>
+      <c r="C20" s="169" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1">
       <c r="B21" s="17"/>
       <c r="C21" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18" customHeight="1">
       <c r="B22" s="17"/>
       <c r="C22" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18" customHeight="1">
@@ -10531,49 +10882,49 @@
     <row r="24" spans="2:3" ht="18" customHeight="1">
       <c r="B24" s="17"/>
       <c r="C24" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="18" customHeight="1">
       <c r="B25" s="17"/>
       <c r="C25" s="19" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18" customHeight="1">
       <c r="B26" s="17"/>
       <c r="C26" s="19" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="18" customHeight="1">
       <c r="B27" s="17"/>
       <c r="C27" s="19" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="18" customHeight="1">
       <c r="B28" s="17"/>
       <c r="C28" s="19" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="18" customHeight="1">
       <c r="B29" s="17"/>
       <c r="C29" s="19" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="18" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="19" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="18" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="19" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="18" customHeight="1">
@@ -10585,19 +10936,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="18" customHeight="1">
       <c r="B34" s="17"/>
       <c r="C34" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="18" customHeight="1">
       <c r="B35" s="17"/>
       <c r="C35" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="18" customHeight="1">
@@ -10607,13 +10958,13 @@
     <row r="37" spans="2:3" ht="18" customHeight="1">
       <c r="B37" s="17"/>
       <c r="C37" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="18" customHeight="1">
       <c r="B38" s="17"/>
       <c r="C38" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="192.75" customHeight="1">
@@ -10623,7 +10974,7 @@
     <row r="40" spans="2:3" ht="18" customHeight="1">
       <c r="B40" s="17"/>
       <c r="C40" s="19" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="18" customHeight="1">
@@ -10639,6 +10990,7 @@
       <c r="C43" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection password="E5A6" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10649,8 +11001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10687,7 +11039,7 @@
     <row r="6" spans="2:3" ht="18" customHeight="1">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18" customHeight="1">
@@ -10703,7 +11055,7 @@
     <row r="9" spans="2:3" ht="18" customHeight="1">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18" customHeight="1">
@@ -10745,7 +11097,7 @@
     <row r="16" spans="2:3" ht="18" customHeight="1">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18" customHeight="1">
@@ -10757,19 +11109,19 @@
     <row r="18" spans="2:3" ht="18" customHeight="1">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18" customHeight="1">
       <c r="B19" s="17"/>
       <c r="C19" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18" customHeight="1">
       <c r="B20" s="17"/>
       <c r="C20" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1">
@@ -10787,25 +11139,25 @@
     <row r="23" spans="2:3" ht="18" customHeight="1">
       <c r="B23" s="17"/>
       <c r="C23" s="18" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18" customHeight="1">
       <c r="B24" s="17"/>
       <c r="C24" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="18" customHeight="1">
       <c r="B25" s="17"/>
       <c r="C25" s="19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18" customHeight="1">
       <c r="B26" s="17"/>
       <c r="C26" s="19" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="18" customHeight="1">
@@ -10815,31 +11167,31 @@
     <row r="28" spans="2:3" ht="18" customHeight="1">
       <c r="B28" s="17"/>
       <c r="C28" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="18" customHeight="1">
       <c r="B29" s="17"/>
       <c r="C29" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="18" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="18" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="18" customHeight="1">
       <c r="B32" s="17"/>
       <c r="C32" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="18" customHeight="1">
@@ -10849,25 +11201,25 @@
     <row r="34" spans="2:3" ht="18" customHeight="1">
       <c r="B34" s="17"/>
       <c r="C34" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="18" customHeight="1">
       <c r="B35" s="17"/>
       <c r="C35" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="18" customHeight="1">
       <c r="B36" s="17"/>
       <c r="C36" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="18" customHeight="1">
       <c r="B37" s="17"/>
       <c r="C37" s="19" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="18" customHeight="1">
@@ -10877,25 +11229,25 @@
     <row r="39" spans="2:3" ht="18" customHeight="1">
       <c r="B39" s="17"/>
       <c r="C39" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="18" customHeight="1">
       <c r="B40" s="17"/>
       <c r="C40" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="18" customHeight="1">
       <c r="B41" s="17"/>
       <c r="C41" s="19" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="18" customHeight="1">
       <c r="B42" s="17"/>
       <c r="C42" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="18" customHeight="1">
@@ -10907,24 +11259,24 @@
         <v>4</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="18" customHeight="1">
       <c r="B45" s="17"/>
       <c r="C45" s="18" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="18" customHeight="1">
       <c r="B46" s="17"/>
-      <c r="C46" s="200" t="s">
-        <v>472</v>
+      <c r="C46" s="206" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="18" customHeight="1">
       <c r="B47" s="17"/>
-      <c r="C47" s="200"/>
+      <c r="C47" s="206"/>
     </row>
     <row r="48" spans="2:3" ht="18" customHeight="1">
       <c r="B48" s="17"/>
@@ -10933,7 +11285,7 @@
     <row r="49" spans="2:3" ht="18" customHeight="1">
       <c r="B49" s="17"/>
       <c r="C49" s="18" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="18" customHeight="1">
@@ -10944,13 +11296,13 @@
     </row>
     <row r="51" spans="2:3" ht="18" customHeight="1">
       <c r="B51" s="17"/>
-      <c r="C51" s="200" t="s">
-        <v>332</v>
+      <c r="C51" s="206" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="18" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="C52" s="200"/>
+      <c r="C52" s="206"/>
     </row>
     <row r="53" spans="2:3" ht="18" customHeight="1">
       <c r="B53" s="17"/>
@@ -10959,18 +11311,18 @@
     <row r="54" spans="2:3" ht="18" customHeight="1">
       <c r="B54" s="17"/>
       <c r="C54" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="18" customHeight="1">
       <c r="B55" s="17"/>
-      <c r="C55" s="200" t="s">
-        <v>337</v>
+      <c r="C55" s="206" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="18" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="C56" s="200"/>
+      <c r="C56" s="206"/>
     </row>
     <row r="57" spans="2:3" ht="18" customHeight="1">
       <c r="B57" s="17"/>
@@ -10984,17 +11336,17 @@
     </row>
     <row r="59" spans="2:3" ht="18" customHeight="1">
       <c r="B59" s="17"/>
-      <c r="C59" s="200" t="s">
-        <v>279</v>
+      <c r="C59" s="206" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="18" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="C60" s="200"/>
+      <c r="C60" s="206"/>
     </row>
     <row r="61" spans="2:3" ht="18" customHeight="1">
       <c r="B61" s="17"/>
-      <c r="C61" s="200"/>
+      <c r="C61" s="206"/>
     </row>
     <row r="62" spans="2:3" ht="18" customHeight="1">
       <c r="B62" s="17"/>
@@ -11003,25 +11355,25 @@
     <row r="63" spans="2:3" ht="18" customHeight="1">
       <c r="B63" s="17"/>
       <c r="C63" s="18" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="24">
       <c r="B64" s="17"/>
-      <c r="C64" s="23" t="s">
-        <v>479</v>
+      <c r="C64" s="177" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="18" customHeight="1">
       <c r="B65" s="17"/>
-      <c r="C65" s="23" t="s">
-        <v>480</v>
+      <c r="C65" s="177" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="18" customHeight="1">
       <c r="B66" s="17"/>
       <c r="C66" s="23" t="s">
-        <v>481</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="18" customHeight="1">
@@ -11033,6 +11385,7 @@
       <c r="C68" s="22"/>
     </row>
   </sheetData>
+  <sheetProtection password="E5A6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="C59:C61"/>
@@ -11040,23 +11393,28 @@
     <mergeCell ref="C46:C47"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C65" location="自定义字段!B7" display="2）cssweb_funcid，自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C64" location="自定义字段!B4" display="1）cssweb_sysNo、cssweb_sysVer、cssweb_busiType，三个自定义字段为必传字段，含义见“自定义字段”，取值范围见“数据字典”；"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C76"/>
+  <dimension ref="B2:C149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="11" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="139" style="12" customWidth="1"/>
     <col min="4" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -11074,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18" customHeight="1">
@@ -11086,37 +11444,37 @@
     <row r="6" spans="2:3" ht="18" customHeight="1">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="18" customHeight="1">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="18" customHeight="1">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
-        <v>614</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="18" customHeight="1">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18" customHeight="1">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18" customHeight="1">
       <c r="B11" s="17"/>
       <c r="C11" s="19" t="s">
-        <v>44</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="18" customHeight="1">
@@ -11132,13 +11490,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18" customHeight="1">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="18" customHeight="1">
@@ -11150,67 +11508,67 @@
         <v>3</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18" customHeight="1">
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18" customHeight="1">
       <c r="B19" s="17"/>
       <c r="C19" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="18" customHeight="1">
       <c r="B20" s="17"/>
       <c r="C20" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="18" customHeight="1">
       <c r="B21" s="17"/>
       <c r="C21" s="19" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="18" customHeight="1">
       <c r="B22" s="17"/>
       <c r="C22" s="19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18" customHeight="1">
       <c r="B23" s="17"/>
       <c r="C23" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18" customHeight="1">
       <c r="B24" s="17"/>
       <c r="C24" s="19" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="18" customHeight="1">
       <c r="B25" s="17"/>
       <c r="C25" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18" customHeight="1">
       <c r="B26" s="17"/>
       <c r="C26" s="19" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="18" customHeight="1">
       <c r="B27" s="17"/>
       <c r="C27" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="18" customHeight="1">
@@ -11222,25 +11580,25 @@
         <v>4</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="18" customHeight="1">
       <c r="B30" s="17"/>
       <c r="C30" s="19" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="18" customHeight="1">
       <c r="B31" s="17"/>
       <c r="C31" s="19" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="18" customHeight="1">
       <c r="B32" s="17"/>
       <c r="C32" s="19" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="18" customHeight="1">
@@ -11250,43 +11608,43 @@
     <row r="34" spans="2:3" ht="18" customHeight="1">
       <c r="B34" s="17"/>
       <c r="C34" s="19" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="18" customHeight="1">
       <c r="B35" s="17"/>
       <c r="C35" s="19" t="s">
-        <v>585</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="18" customHeight="1">
       <c r="B36" s="17"/>
       <c r="C36" s="19" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="18" customHeight="1">
       <c r="B37" s="17"/>
       <c r="C37" s="19" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="18" customHeight="1">
       <c r="B38" s="17"/>
-      <c r="C38" s="171" t="s">
-        <v>596</v>
+      <c r="C38" s="170" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="18" customHeight="1">
       <c r="B39" s="17"/>
       <c r="C39" s="19" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="18" customHeight="1">
       <c r="B40" s="17"/>
       <c r="C40" s="19" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="18" customHeight="1">
@@ -11296,7 +11654,7 @@
     <row r="42" spans="2:3" ht="18" customHeight="1">
       <c r="B42" s="17"/>
       <c r="C42" s="19" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="18" customHeight="1">
@@ -11308,25 +11666,25 @@
         <v>5</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="18" customHeight="1">
       <c r="B45" s="17"/>
       <c r="C45" s="19" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="18" customHeight="1">
       <c r="B46" s="17"/>
       <c r="C46" s="19" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="18" customHeight="1">
       <c r="B47" s="17"/>
       <c r="C47" s="19" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="18" customHeight="1">
@@ -11336,31 +11694,31 @@
     <row r="49" spans="2:3" ht="18" customHeight="1">
       <c r="B49" s="17"/>
       <c r="C49" s="19" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="18" customHeight="1">
       <c r="B50" s="17"/>
       <c r="C50" s="19" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="18" customHeight="1">
       <c r="B51" s="17"/>
       <c r="C51" s="19" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="18" customHeight="1">
       <c r="B52" s="17"/>
       <c r="C52" s="19" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="18" customHeight="1">
       <c r="B53" s="17"/>
-      <c r="C53" s="171" t="s">
-        <v>559</v>
+      <c r="C53" s="170" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="18" customHeight="1">
@@ -11372,76 +11730,76 @@
         <v>6</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="18" customHeight="1">
       <c r="B56" s="17"/>
       <c r="C56" s="19" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="18" customHeight="1">
       <c r="B57" s="17"/>
       <c r="C57" s="19" t="s">
-        <v>560</v>
+        <v>605</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="18" customHeight="1">
       <c r="B58" s="17"/>
       <c r="C58" s="19" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="18" customHeight="1">
       <c r="B59" s="17"/>
       <c r="C59" s="19" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="18" customHeight="1">
       <c r="B60" s="17"/>
-      <c r="C60" s="164"/>
+      <c r="C60" s="163"/>
     </row>
     <row r="61" spans="2:3" ht="18" customHeight="1">
       <c r="B61" s="17"/>
       <c r="C61" s="19" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="18" customHeight="1">
       <c r="B62" s="17"/>
       <c r="C62" s="19" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="18" customHeight="1">
       <c r="B63" s="17"/>
       <c r="C63" s="19" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="18" customHeight="1">
       <c r="B64" s="17"/>
       <c r="C64" s="19" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="18" customHeight="1">
       <c r="B65" s="17"/>
       <c r="C65" s="19" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="18" customHeight="1">
       <c r="B66" s="17"/>
-      <c r="C66" s="200" t="s">
-        <v>539</v>
+      <c r="C66" s="206" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="18" customHeight="1">
       <c r="B67" s="17"/>
-      <c r="C67" s="201"/>
+      <c r="C67" s="207"/>
     </row>
     <row r="68" spans="2:3" ht="18" customHeight="1">
       <c r="B68" s="17"/>
@@ -11452,45 +11810,460 @@
         <v>7</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="18" customHeight="1">
       <c r="B70" s="17"/>
-      <c r="C70" s="19"/>
+      <c r="C70" s="19" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="71" spans="2:3" ht="18" customHeight="1">
       <c r="B71" s="17"/>
-      <c r="C71" s="19"/>
+      <c r="C71" s="19" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="72" spans="2:3" ht="18" customHeight="1">
       <c r="B72" s="17"/>
-      <c r="C72" s="19"/>
+      <c r="C72" s="19" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="73" spans="2:3" ht="18" customHeight="1">
       <c r="B73" s="17"/>
-      <c r="C73" s="19"/>
+      <c r="C73" s="19" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="74" spans="2:3" ht="18" customHeight="1">
       <c r="B74" s="17"/>
-      <c r="C74" s="19"/>
+      <c r="C74" s="175"/>
     </row>
     <row r="75" spans="2:3" ht="18" customHeight="1">
       <c r="B75" s="17"/>
-      <c r="C75" s="19"/>
-    </row>
-    <row r="76" spans="2:3" ht="18" customHeight="1" thickBot="1">
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
+      <c r="C75" s="19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="18" customHeight="1">
+      <c r="B76" s="17"/>
+      <c r="C76" s="19" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="18" customHeight="1">
+      <c r="B77" s="17"/>
+      <c r="C77" s="19" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="18" customHeight="1">
+      <c r="B78" s="17"/>
+      <c r="C78" s="19" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="18" customHeight="1">
+      <c r="B79" s="17"/>
+      <c r="C79" s="170" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="18" customHeight="1">
+      <c r="B80" s="17"/>
+      <c r="C80" s="19" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="18" customHeight="1">
+      <c r="B81" s="17"/>
+      <c r="C81" s="19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="18" customHeight="1">
+      <c r="B82" s="17"/>
+      <c r="C82" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="18" customHeight="1">
+      <c r="B83" s="17"/>
+      <c r="C83" s="19"/>
+    </row>
+    <row r="84" spans="2:3" ht="18" customHeight="1">
+      <c r="B84" s="15">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="18" customHeight="1">
+      <c r="B85" s="17"/>
+      <c r="C85" s="19" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="18" customHeight="1">
+      <c r="B86" s="17"/>
+      <c r="C86" s="206" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="18" customHeight="1">
+      <c r="B87" s="17"/>
+      <c r="C87" s="207"/>
+    </row>
+    <row r="88" spans="2:3" ht="18" customHeight="1">
+      <c r="B88" s="17"/>
+      <c r="C88" s="19"/>
+    </row>
+    <row r="89" spans="2:3" ht="18" customHeight="1">
+      <c r="B89" s="17"/>
+      <c r="C89" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="18" customHeight="1">
+      <c r="B90" s="17"/>
+      <c r="C90" s="177" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="18" customHeight="1">
+      <c r="B91" s="17"/>
+      <c r="C91" s="177" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="18" customHeight="1">
+      <c r="B92" s="17"/>
+      <c r="C92" s="177" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="18" customHeight="1">
+      <c r="B93" s="17"/>
+      <c r="C93" s="177" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B94" s="17"/>
+      <c r="C94" s="23" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="18" customHeight="1">
+      <c r="B95" s="17"/>
+      <c r="C95" s="23" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="18" customHeight="1">
+      <c r="B96" s="17"/>
+      <c r="C96" s="19"/>
+    </row>
+    <row r="97" spans="2:3" ht="18" customHeight="1">
+      <c r="B97" s="15">
+        <v>9</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" ht="18" customHeight="1">
+      <c r="B98" s="17"/>
+      <c r="C98" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="18" customHeight="1">
+      <c r="B99" s="17"/>
+      <c r="C99" s="206" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" ht="18" customHeight="1">
+      <c r="B100" s="17"/>
+      <c r="C100" s="207"/>
+    </row>
+    <row r="101" spans="2:3" ht="18" customHeight="1">
+      <c r="B101" s="17"/>
+      <c r="C101" s="19"/>
+    </row>
+    <row r="102" spans="2:3" ht="18" customHeight="1">
+      <c r="B102" s="17"/>
+      <c r="C102" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" ht="18" customHeight="1">
+      <c r="B103" s="17"/>
+      <c r="C103" s="177" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="18" customHeight="1">
+      <c r="B104" s="17"/>
+      <c r="C104" s="177" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" ht="18" customHeight="1">
+      <c r="B105" s="17"/>
+      <c r="C105" s="177" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="18" customHeight="1">
+      <c r="B106" s="17"/>
+      <c r="C106" s="177" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" ht="24">
+      <c r="B107" s="17"/>
+      <c r="C107" s="23" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" ht="18" customHeight="1">
+      <c r="B108" s="17"/>
+      <c r="C108" s="23" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" ht="18" customHeight="1">
+      <c r="B109" s="17"/>
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="2:3" ht="18" customHeight="1">
+      <c r="B110" s="15">
+        <v>10</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="18" customHeight="1">
+      <c r="B111" s="17"/>
+      <c r="C111" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="18" customHeight="1">
+      <c r="B112" s="17"/>
+      <c r="C112" s="206" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="18" customHeight="1">
+      <c r="B113" s="17"/>
+      <c r="C113" s="207"/>
+    </row>
+    <row r="114" spans="2:3" ht="18" customHeight="1">
+      <c r="B114" s="17"/>
+      <c r="C114" s="176" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="18" customHeight="1">
+      <c r="B115" s="17"/>
+      <c r="C115" s="206" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" ht="18" customHeight="1">
+      <c r="B116" s="17"/>
+      <c r="C116" s="207"/>
+    </row>
+    <row r="117" spans="2:3" ht="18" customHeight="1">
+      <c r="B117" s="17"/>
+      <c r="C117" s="176"/>
+    </row>
+    <row r="118" spans="2:3" ht="18" customHeight="1">
+      <c r="B118" s="17"/>
+      <c r="C118" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" ht="18" customHeight="1">
+      <c r="B119" s="17"/>
+      <c r="C119" s="177" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="18" customHeight="1">
+      <c r="B120" s="17"/>
+      <c r="C120" s="177" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" ht="18" customHeight="1">
+      <c r="B121" s="17"/>
+      <c r="C121" s="177" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" ht="18" customHeight="1">
+      <c r="B122" s="17"/>
+      <c r="C122" s="177" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B123" s="17"/>
+      <c r="C123" s="23" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="18" customHeight="1">
+      <c r="B124" s="17"/>
+      <c r="C124" s="23" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="18" customHeight="1">
+      <c r="B125" s="17"/>
+      <c r="C125" s="23"/>
+    </row>
+    <row r="126" spans="2:3" ht="18" customHeight="1">
+      <c r="B126" s="17"/>
+      <c r="C126" s="179" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="18" customHeight="1">
+      <c r="B127" s="17"/>
+      <c r="C127" s="180" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="18" customHeight="1">
+      <c r="B128" s="17"/>
+      <c r="C128" s="23"/>
+    </row>
+    <row r="129" spans="2:3" ht="18" customHeight="1">
+      <c r="B129" s="15">
+        <v>10</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" ht="18" customHeight="1">
+      <c r="B130" s="17"/>
+      <c r="C130" s="19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" ht="18" customHeight="1">
+      <c r="B131" s="17"/>
+      <c r="C131" s="206" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" ht="18" customHeight="1">
+      <c r="B132" s="17"/>
+      <c r="C132" s="207"/>
+    </row>
+    <row r="133" spans="2:3" ht="18" customHeight="1">
+      <c r="B133" s="17"/>
+      <c r="C133" s="23"/>
+    </row>
+    <row r="134" spans="2:3" ht="18" customHeight="1">
+      <c r="B134" s="17"/>
+      <c r="C134" s="19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" ht="18" customHeight="1">
+      <c r="B135" s="17"/>
+      <c r="C135" s="177" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" ht="18" customHeight="1">
+      <c r="B136" s="17"/>
+      <c r="C136" s="177" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" ht="18" customHeight="1">
+      <c r="B137" s="17"/>
+      <c r="C137" s="177" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B138" s="17"/>
+      <c r="C138" s="23" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B139" s="17"/>
+      <c r="C139" s="181" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" ht="18" customHeight="1">
+      <c r="B140" s="17"/>
+      <c r="C140" s="23" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" ht="18" customHeight="1">
+      <c r="B141" s="17"/>
+      <c r="C141" s="23"/>
+    </row>
+    <row r="142" spans="2:3" ht="18" customHeight="1">
+      <c r="B142" s="17"/>
+      <c r="C142" s="19"/>
+    </row>
+    <row r="143" spans="2:3" ht="18" customHeight="1" thickBot="1">
+      <c r="B143" s="21"/>
+      <c r="C143" s="22"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="12" t="s">
+        <v>611</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="C131:C132"/>
     <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C115:C116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C53" location="自定义功能接口!B3" display="      返回格式说明"/>
     <hyperlink ref="C38" location="附录!B4" display="   密钥：见附录"/>
+    <hyperlink ref="C79" location="附录!B4" display="   密钥：见附录"/>
+    <hyperlink ref="C103" location="自定义字段!B4" display="1）cssweb_sysNo、cssweb_sysVer、cssweb_busiType，三个自定义字段为必传字段，含义见“自定义字段”，取值范围见“数据字典”；"/>
+    <hyperlink ref="C105" location="自定义字段!B6" display="3）cssweb_busiType，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C104" location="自定义字段!B5" display="2）cssweb_sysVer，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C119" location="自定义字段!B4" display="1）cssweb_sysNo、cssweb_sysVer、cssweb_busiType，三个自定义字段为必传字段，含义见“自定义字段”，取值范围见“数据字典”；"/>
+    <hyperlink ref="C121" location="自定义字段!B6" display="3）cssweb_busiType，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C120" location="自定义字段!B5" display="2）cssweb_sysVer，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C135" location="自定义字段!B4" display="1）cssweb_sysNo、cssweb_sysVer、cssweb_busiType，三个自定义字段为必传字段，含义见“自定义字段”，取值范围见“数据字典”；"/>
+    <hyperlink ref="C137" location="自定义字段!B6" display="3）cssweb_busiType，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C136" location="自定义字段!B5" display="2）cssweb_sysVer，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C139" location="自定义字段!B20" display="5）cssweb_connid，为必传的自定义字段，是柜台的连接号。"/>
+    <hyperlink ref="C90" location="自定义字段!B4" display="1）cssweb_sysNo、cssweb_sysVer、cssweb_busiType，三个自定义字段为必传字段，含义见“自定义字段”，取值范围见“数据字典”；"/>
+    <hyperlink ref="C92" location="自定义字段!B6" display="3）cssweb_busiType，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C91" location="自定义字段!B5" display="2）cssweb_sysVer，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C93" location="自定义字段!B18" display="4）cssweb_cacheFlag，查询缓存的功能标识符，含义见“自定义字段”；"/>
+    <hyperlink ref="C106" location="自定义字段!B12" display="4）cssweb_hardinfo，为必传的自定义字段，含义见“自定义字段”；"/>
+    <hyperlink ref="C122" location="自定义字段!B12" display="4）cssweb_hardinfo，为必传的自定义字段，含义见“自定义字段”；"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11502,7 +12275,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11512,7 +12285,7 @@
     <col min="3" max="3" width="6.75" style="94" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="60" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="155" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="154" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
@@ -11521,94 +12294,94 @@
       <c r="B3" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="149" t="s">
-        <v>149</v>
+      <c r="C3" s="148" t="s">
+        <v>148</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="E3" s="150" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="151" t="s">
-        <v>416</v>
+        <v>428</v>
+      </c>
+      <c r="E3" s="149" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="150" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1">
       <c r="B4" s="99">
         <v>1</v>
       </c>
-      <c r="C4" s="152" t="s">
-        <v>150</v>
+      <c r="C4" s="151" t="s">
+        <v>149</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>435</v>
-      </c>
-      <c r="E4" s="153" t="s">
-        <v>584</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>461</v>
+        <v>429</v>
+      </c>
+      <c r="E4" s="152" t="s">
+        <v>612</v>
+      </c>
+      <c r="F4" s="162" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="104" customFormat="1" ht="18" customHeight="1">
       <c r="B5" s="99">
         <v>2</v>
       </c>
-      <c r="C5" s="152" t="s">
-        <v>307</v>
+      <c r="C5" s="151" t="s">
+        <v>304</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>449</v>
-      </c>
-      <c r="E5" s="153" t="s">
-        <v>451</v>
-      </c>
-      <c r="F5" s="163" t="s">
-        <v>462</v>
+        <v>443</v>
+      </c>
+      <c r="E5" s="152" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" s="162" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="104" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="99">
         <v>3</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="151" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" s="100" t="s">
         <v>453</v>
       </c>
-      <c r="D6" s="100" t="s">
-        <v>459</v>
-      </c>
       <c r="E6" s="101" t="s">
+        <v>449</v>
+      </c>
+      <c r="F6" s="155" t="s">
         <v>455</v>
-      </c>
-      <c r="F6" s="156" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="104" customFormat="1" ht="18" customHeight="1">
       <c r="B7" s="99">
         <v>4</v>
       </c>
-      <c r="C7" s="152"/>
+      <c r="C7" s="151"/>
       <c r="D7" s="100"/>
       <c r="E7" s="101"/>
-      <c r="F7" s="156"/>
+      <c r="F7" s="155"/>
     </row>
     <row r="8" spans="2:6" s="104" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="99">
         <v>5</v>
       </c>
-      <c r="C8" s="152"/>
+      <c r="C8" s="151"/>
       <c r="D8" s="100"/>
       <c r="E8" s="101"/>
-      <c r="F8" s="156"/>
+      <c r="F8" s="155"/>
     </row>
     <row r="9" spans="2:6" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="113"/>
-      <c r="C9" s="154"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="114"/>
       <c r="E9" s="115"/>
-      <c r="F9" s="157"/>
+      <c r="F9" s="156"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11621,8 +12394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11639,733 +12412,733 @@
   <sheetData>
     <row r="2" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:7">
-      <c r="B3" s="161" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" s="222" t="s">
+      <c r="B3" s="160" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" s="228" t="s">
+        <v>431</v>
+      </c>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="230"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="161" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="231" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="233"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="161" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="231" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="232"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="233"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="161" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="237" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="235"/>
+      <c r="E6" s="235"/>
+      <c r="F6" s="235"/>
+      <c r="G6" s="236"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="208" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="135" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="137" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="209"/>
+      <c r="C8" s="138" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" s="139"/>
+      <c r="F8" s="140" t="s">
+        <v>435</v>
+      </c>
+      <c r="G8" s="142"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="209"/>
+      <c r="C9" s="138" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="142"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="209"/>
+      <c r="C10" s="138" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="139" t="s">
+        <v>504</v>
+      </c>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="142"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="209"/>
+      <c r="C11" s="138" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="142"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="209"/>
+      <c r="C12" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="D12" s="139" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="142"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="209"/>
+      <c r="C13" s="138" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="139" t="s">
+        <v>507</v>
+      </c>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="142"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="209"/>
+      <c r="C14" s="138" t="s">
+        <v>502</v>
+      </c>
+      <c r="D14" s="139" t="s">
+        <v>500</v>
+      </c>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="142" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="209"/>
+      <c r="C15" s="138" t="s">
+        <v>540</v>
+      </c>
+      <c r="D15" s="139" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="142" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="209"/>
+      <c r="C16" s="138" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" s="139" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="209"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="142"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="208" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="223"/>
-      <c r="E3" s="223"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="224"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="162" t="s">
+      <c r="C18" s="143" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="211" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" s="225"/>
+      <c r="G18" s="145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="209"/>
+      <c r="C19" s="146" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" s="147" t="s">
+        <v>516</v>
+      </c>
+      <c r="E19" s="226"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="142" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="209"/>
+      <c r="C20" s="146" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" s="147" t="s">
+        <v>517</v>
+      </c>
+      <c r="E20" s="214"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="142" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="210"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="142"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="208" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="143" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" s="144" t="s">
+        <v>440</v>
+      </c>
+      <c r="E22" s="211" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="212"/>
+      <c r="G22" s="213"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="209"/>
+      <c r="C23" s="146">
+        <v>1100</v>
+      </c>
+      <c r="D23" s="146" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="216"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="209"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="167"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="210"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="216"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="217" t="s">
+        <v>425</v>
+      </c>
+      <c r="C26" s="219"/>
+      <c r="D26" s="220"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="221"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="217"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="224"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B28" s="218"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="159"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="160" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="228" t="s">
+        <v>442</v>
+      </c>
+      <c r="D30" s="229"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="230"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="161" t="s">
+        <v>415</v>
+      </c>
+      <c r="C31" s="231" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" s="232"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="233"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="161" t="s">
+        <v>416</v>
+      </c>
+      <c r="C32" s="231" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="232"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="233"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="161" t="s">
+        <v>417</v>
+      </c>
+      <c r="C33" s="237" t="s">
+        <v>446</v>
+      </c>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="236"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="208" t="s">
+        <v>436</v>
+      </c>
+      <c r="C34" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="D34" s="135" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" s="136" t="s">
+        <v>420</v>
+      </c>
+      <c r="F34" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="C4" s="225" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="227"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="162" t="s">
+      <c r="G34" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="225" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="227"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="162" t="s">
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="209"/>
+      <c r="C35" s="138" t="s">
+        <v>434</v>
+      </c>
+      <c r="D35" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="139"/>
+      <c r="F35" s="140" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35" s="141"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="209"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="142"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="209"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="142"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="209"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="142"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="209"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="142"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="208" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="143" t="s">
         <v>423</v>
       </c>
-      <c r="C6" s="231" t="s">
-        <v>583</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="230"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="202" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="136" t="s">
+      <c r="D40" s="144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" s="211" t="s">
         <v>424</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="F40" s="225"/>
+      <c r="G40" s="145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="209"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="227"/>
+      <c r="G41" s="142"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="210"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="227"/>
+      <c r="G42" s="142"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="208" t="s">
+        <v>438</v>
+      </c>
+      <c r="C43" s="143" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" s="144" t="s">
+        <v>440</v>
+      </c>
+      <c r="E43" s="211" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" s="212"/>
+      <c r="G43" s="213"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="209"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="215"/>
+      <c r="G44" s="216"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="210"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="216"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="217" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="137" t="s">
-        <v>426</v>
-      </c>
-      <c r="F7" s="136" t="s">
-        <v>427</v>
-      </c>
-      <c r="G7" s="138" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="203"/>
-      <c r="C8" s="139" t="s">
-        <v>440</v>
-      </c>
-      <c r="D8" s="140" t="s">
-        <v>458</v>
-      </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141" t="s">
-        <v>441</v>
-      </c>
-      <c r="G8" s="143"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="203"/>
-      <c r="C9" s="139" t="s">
-        <v>520</v>
-      </c>
-      <c r="D9" s="140" t="s">
-        <v>513</v>
-      </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="143"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="203"/>
-      <c r="C10" s="139" t="s">
-        <v>521</v>
-      </c>
-      <c r="D10" s="140" t="s">
-        <v>514</v>
-      </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="143"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="203"/>
-      <c r="C11" s="139" t="s">
-        <v>522</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>515</v>
-      </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="143"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="203"/>
-      <c r="C12" s="139" t="s">
-        <v>519</v>
-      </c>
-      <c r="D12" s="140" t="s">
-        <v>516</v>
-      </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="143"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="203"/>
-      <c r="C13" s="139" t="s">
-        <v>518</v>
-      </c>
-      <c r="D13" s="140" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="143"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="203"/>
-      <c r="C14" s="139" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" s="140" t="s">
-        <v>510</v>
-      </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="143" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="203"/>
-      <c r="C15" s="139" t="s">
-        <v>551</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>439</v>
-      </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="143" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="203"/>
-      <c r="C16" s="139" t="s">
-        <v>550</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="143" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="203"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="143"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="202" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="D18" s="145" t="s">
-        <v>425</v>
-      </c>
-      <c r="E18" s="205" t="s">
-        <v>430</v>
-      </c>
-      <c r="F18" s="219"/>
-      <c r="G18" s="146" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="203"/>
-      <c r="C19" s="147" t="s">
-        <v>528</v>
-      </c>
-      <c r="D19" s="148" t="s">
-        <v>526</v>
-      </c>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="143" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="203"/>
-      <c r="C20" s="147" t="s">
-        <v>529</v>
-      </c>
-      <c r="D20" s="148" t="s">
-        <v>527</v>
-      </c>
-      <c r="E20" s="208"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="143" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="204"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="143"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="202" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" s="144" t="s">
-        <v>445</v>
-      </c>
-      <c r="D22" s="145" t="s">
-        <v>446</v>
-      </c>
-      <c r="E22" s="205" t="s">
-        <v>447</v>
-      </c>
-      <c r="F22" s="206"/>
-      <c r="G22" s="207"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="203"/>
-      <c r="C23" s="147">
-        <v>1100</v>
-      </c>
-      <c r="D23" s="147" t="s">
-        <v>555</v>
-      </c>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="210"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="203"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="168"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="204"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="210"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="211" t="s">
-        <v>431</v>
-      </c>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="215"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="211"/>
-      <c r="C27" s="216"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="218"/>
-    </row>
-    <row r="28" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B28" s="212"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="160"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="161" t="s">
-        <v>420</v>
-      </c>
-      <c r="C30" s="222" t="s">
-        <v>448</v>
-      </c>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="224"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="162" t="s">
-        <v>421</v>
-      </c>
-      <c r="C31" s="225" t="s">
-        <v>450</v>
-      </c>
-      <c r="D31" s="226"/>
-      <c r="E31" s="226"/>
-      <c r="F31" s="226"/>
-      <c r="G31" s="227"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="162" t="s">
-        <v>422</v>
-      </c>
-      <c r="C32" s="225" t="s">
-        <v>432</v>
-      </c>
-      <c r="D32" s="226"/>
-      <c r="E32" s="226"/>
-      <c r="F32" s="226"/>
-      <c r="G32" s="227"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="162" t="s">
-        <v>423</v>
-      </c>
-      <c r="C33" s="231" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="229"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="230"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="202" t="s">
-        <v>442</v>
-      </c>
-      <c r="C34" s="136" t="s">
-        <v>424</v>
-      </c>
-      <c r="D34" s="136" t="s">
-        <v>425</v>
-      </c>
-      <c r="E34" s="137" t="s">
-        <v>426</v>
-      </c>
-      <c r="F34" s="136" t="s">
-        <v>427</v>
-      </c>
-      <c r="G34" s="138" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="203"/>
-      <c r="C35" s="139" t="s">
-        <v>440</v>
-      </c>
-      <c r="D35" s="140" t="s">
-        <v>399</v>
-      </c>
-      <c r="E35" s="140"/>
-      <c r="F35" s="141" t="s">
-        <v>441</v>
-      </c>
-      <c r="G35" s="142"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="203"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="143"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="203"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="143"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="203"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="143"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="203"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="143"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="202" t="s">
-        <v>443</v>
-      </c>
-      <c r="C40" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="D40" s="145" t="s">
-        <v>425</v>
-      </c>
-      <c r="E40" s="205" t="s">
-        <v>430</v>
-      </c>
-      <c r="F40" s="219"/>
-      <c r="G40" s="146" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="203"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="143"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="204"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="221"/>
-      <c r="G42" s="143"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="202" t="s">
-        <v>444</v>
-      </c>
-      <c r="C43" s="144" t="s">
-        <v>445</v>
-      </c>
-      <c r="D43" s="145" t="s">
-        <v>446</v>
-      </c>
-      <c r="E43" s="205" t="s">
-        <v>447</v>
-      </c>
-      <c r="F43" s="206"/>
-      <c r="G43" s="207"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="203"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="210"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="204"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="208"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="210"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="211" t="s">
-        <v>431</v>
-      </c>
-      <c r="C46" s="213"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="214"/>
-      <c r="F46" s="214"/>
-      <c r="G46" s="215"/>
+      <c r="C46" s="219"/>
+      <c r="D46" s="220"/>
+      <c r="E46" s="220"/>
+      <c r="F46" s="220"/>
+      <c r="G46" s="221"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="211"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="217"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="218"/>
+      <c r="B47" s="217"/>
+      <c r="C47" s="222"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="223"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="224"/>
     </row>
     <row r="48" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B48" s="212"/>
-      <c r="C48" s="158"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="160"/>
+      <c r="B48" s="218"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="159"/>
     </row>
     <row r="49" spans="2:7" ht="14.25" thickBot="1"/>
     <row r="50" spans="2:7">
-      <c r="B50" s="161" t="s">
+      <c r="B50" s="160" t="s">
+        <v>414</v>
+      </c>
+      <c r="C50" s="228" t="s">
+        <v>448</v>
+      </c>
+      <c r="D50" s="229"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="230"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="161" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" s="231" t="s">
+        <v>454</v>
+      </c>
+      <c r="D51" s="232"/>
+      <c r="E51" s="232"/>
+      <c r="F51" s="232"/>
+      <c r="G51" s="233"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="161" t="s">
+        <v>416</v>
+      </c>
+      <c r="C52" s="231" t="s">
+        <v>450</v>
+      </c>
+      <c r="D52" s="232"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="232"/>
+      <c r="G52" s="233"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="161" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="234" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="235"/>
+      <c r="E53" s="235"/>
+      <c r="F53" s="235"/>
+      <c r="G53" s="236"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="208" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="135" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="135" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" s="136" t="s">
         <v>420</v>
       </c>
-      <c r="C50" s="222" t="s">
-        <v>454</v>
-      </c>
-      <c r="D50" s="223"/>
-      <c r="E50" s="223"/>
-      <c r="F50" s="223"/>
-      <c r="G50" s="224"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="162" t="s">
+      <c r="F54" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="C51" s="225" t="s">
-        <v>460</v>
-      </c>
-      <c r="D51" s="226"/>
-      <c r="E51" s="226"/>
-      <c r="F51" s="226"/>
-      <c r="G51" s="227"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="162" t="s">
+      <c r="G54" s="137" t="s">
         <v>422</v>
       </c>
-      <c r="C52" s="225" t="s">
-        <v>456</v>
-      </c>
-      <c r="D52" s="226"/>
-      <c r="E52" s="226"/>
-      <c r="F52" s="226"/>
-      <c r="G52" s="227"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="162" t="s">
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="209"/>
+      <c r="C55" s="138" t="s">
+        <v>434</v>
+      </c>
+      <c r="D55" s="139" t="s">
+        <v>393</v>
+      </c>
+      <c r="E55" s="139"/>
+      <c r="F55" s="140" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" s="141"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="209"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="142"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="209"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="142"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="208" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" s="143" t="s">
         <v>423</v>
       </c>
-      <c r="C53" s="228" t="s">
-        <v>457</v>
-      </c>
-      <c r="D53" s="229"/>
-      <c r="E53" s="229"/>
-      <c r="F53" s="229"/>
-      <c r="G53" s="230"/>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="202" t="s">
-        <v>442</v>
-      </c>
-      <c r="C54" s="136" t="s">
+      <c r="D58" s="144" t="s">
+        <v>419</v>
+      </c>
+      <c r="E58" s="211" t="s">
         <v>424</v>
       </c>
-      <c r="D54" s="136" t="s">
+      <c r="F58" s="225"/>
+      <c r="G58" s="145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="209"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="142"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="210"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="226"/>
+      <c r="F60" s="227"/>
+      <c r="G60" s="142"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="208" t="s">
+        <v>438</v>
+      </c>
+      <c r="C61" s="143" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="144" t="s">
+        <v>440</v>
+      </c>
+      <c r="E61" s="211" t="s">
+        <v>441</v>
+      </c>
+      <c r="F61" s="212"/>
+      <c r="G61" s="213"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="209"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="214"/>
+      <c r="F62" s="215"/>
+      <c r="G62" s="216"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="210"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="214"/>
+      <c r="F63" s="215"/>
+      <c r="G63" s="216"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="217" t="s">
         <v>425</v>
       </c>
-      <c r="E54" s="137" t="s">
-        <v>426</v>
-      </c>
-      <c r="F54" s="136" t="s">
-        <v>427</v>
-      </c>
-      <c r="G54" s="138" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="203"/>
-      <c r="C55" s="139" t="s">
-        <v>440</v>
-      </c>
-      <c r="D55" s="140" t="s">
-        <v>399</v>
-      </c>
-      <c r="E55" s="140"/>
-      <c r="F55" s="141" t="s">
-        <v>441</v>
-      </c>
-      <c r="G55" s="142"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="203"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="143"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="203"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="143"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="202" t="s">
-        <v>443</v>
-      </c>
-      <c r="C58" s="144" t="s">
-        <v>429</v>
-      </c>
-      <c r="D58" s="145" t="s">
-        <v>425</v>
-      </c>
-      <c r="E58" s="205" t="s">
-        <v>430</v>
-      </c>
-      <c r="F58" s="219"/>
-      <c r="G58" s="146" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="203"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="148"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="143"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="204"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="220"/>
-      <c r="F60" s="221"/>
-      <c r="G60" s="143"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="202" t="s">
-        <v>444</v>
-      </c>
-      <c r="C61" s="144" t="s">
-        <v>445</v>
-      </c>
-      <c r="D61" s="145" t="s">
-        <v>446</v>
-      </c>
-      <c r="E61" s="205" t="s">
-        <v>447</v>
-      </c>
-      <c r="F61" s="206"/>
-      <c r="G61" s="207"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="203"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="208"/>
-      <c r="F62" s="209"/>
-      <c r="G62" s="210"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="204"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="208"/>
-      <c r="F63" s="209"/>
-      <c r="G63" s="210"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="211" t="s">
-        <v>431</v>
-      </c>
-      <c r="C64" s="213"/>
-      <c r="D64" s="214"/>
-      <c r="E64" s="214"/>
-      <c r="F64" s="214"/>
-      <c r="G64" s="215"/>
+      <c r="C64" s="219"/>
+      <c r="D64" s="220"/>
+      <c r="E64" s="220"/>
+      <c r="F64" s="220"/>
+      <c r="G64" s="221"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="211"/>
-      <c r="C65" s="216"/>
-      <c r="D65" s="217"/>
-      <c r="E65" s="217"/>
-      <c r="F65" s="217"/>
-      <c r="G65" s="218"/>
+      <c r="B65" s="217"/>
+      <c r="C65" s="222"/>
+      <c r="D65" s="223"/>
+      <c r="E65" s="223"/>
+      <c r="F65" s="223"/>
+      <c r="G65" s="224"/>
     </row>
     <row r="66" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B66" s="212"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="160"/>
+      <c r="B66" s="218"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -12429,8 +13202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -12451,19 +13224,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="97" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E3" s="97" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="F3" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="98" t="s">
         <v>310</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18" customHeight="1">
@@ -12471,19 +13244,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F4" s="102" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G4" s="117" t="s">
-        <v>313</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12491,39 +13264,39 @@
         <v>2</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D5" s="101" t="s">
-        <v>598</v>
+        <v>308</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>312</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>314</v>
+        <v>104</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
       <c r="B6" s="99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="100" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>311</v>
+        <v>582</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>312</v>
-      </c>
-      <c r="G6" s="118" t="s">
-        <v>482</v>
+        <v>309</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12531,35 +13304,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" s="103"/>
+        <v>309</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="8" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
       <c r="B8" s="99">
         <v>6</v>
       </c>
       <c r="C8" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="F8" s="102"/>
       <c r="G8" s="105" t="s">
-        <v>317</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12567,15 +13342,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E9" s="101"/>
       <c r="F9" s="102"/>
       <c r="G9" s="105" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12583,15 +13358,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="E10" s="101"/>
       <c r="F10" s="102"/>
       <c r="G10" s="105" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12599,15 +13374,15 @@
         <v>9</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E11" s="101"/>
       <c r="F11" s="102"/>
       <c r="G11" s="105" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:7" s="104" customFormat="1" ht="108">
@@ -12615,19 +13390,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="G12" s="106" t="s">
-        <v>363</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="2:7" s="104" customFormat="1" ht="48">
@@ -12635,19 +13410,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E13" s="101" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>607</v>
-      </c>
-      <c r="G13" s="119" t="s">
-        <v>362</v>
+        <v>591</v>
+      </c>
+      <c r="G13" s="118" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12655,15 +13430,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="102"/>
       <c r="G14" s="105" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1">
@@ -12671,13 +13446,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="F15" s="109"/>
       <c r="G15" s="110"/>
@@ -12687,13 +13462,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="F16" s="109"/>
       <c r="G16" s="110"/>
@@ -12703,15 +13478,15 @@
         <v>15</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E17" s="108"/>
       <c r="F17" s="109"/>
       <c r="G17" s="110" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="104" customFormat="1" ht="18" customHeight="1">
@@ -12719,15 +13494,15 @@
         <v>16</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D18" s="101" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E18" s="101"/>
       <c r="F18" s="102"/>
       <c r="G18" s="117" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18" customHeight="1">
@@ -12735,26 +13510,32 @@
         <v>17</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E19" s="108"/>
       <c r="F19" s="109"/>
-      <c r="G19" s="165" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18" customHeight="1">
+      <c r="G19" s="164" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="48">
       <c r="B20" s="99">
         <v>18</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
+      <c r="C20" s="107" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="108" t="s">
+        <v>615</v>
+      </c>
       <c r="E20" s="108"/>
       <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
+      <c r="G20" s="178" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="18" customHeight="1">
       <c r="B21" s="99">
@@ -12838,10 +13619,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G4" location="数据字典!B4" display="数据字典"/>
-    <hyperlink ref="G5" location="数据字典!B25" display="数据字典"/>
-    <hyperlink ref="G6" location="数据字典!B35" display="数据字典"/>
-    <hyperlink ref="G18" location="数据字典!B48" display="数据字典"/>
-    <hyperlink ref="G19" location="约定释义!C58" display="详见"/>
+    <hyperlink ref="G6" location="数据字典!B28" display="数据字典。注：参数值是预先分配的固定值"/>
+    <hyperlink ref="G18" location="数据字典!B51" display="数据字典"/>
+    <hyperlink ref="G19" location="约定释义!C55" display="注意：仅限flash交易使用，详见说明"/>
+    <hyperlink ref="G5" location="数据字典!B38" display="数据字典"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12850,10 +13631,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D58"/>
+  <dimension ref="B2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="C13:D14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12868,13 +13649,13 @@
     <row r="2" spans="2:4" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:4" ht="18" customHeight="1">
       <c r="B3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="D3" s="68" t="s">
         <v>172</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18" customHeight="1">
@@ -12882,196 +13663,196 @@
         <v>1</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18" customHeight="1">
       <c r="B5" s="71"/>
       <c r="C5" s="72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18" customHeight="1">
       <c r="B6" s="71"/>
       <c r="C6" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="73" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18" customHeight="1">
       <c r="B7" s="71"/>
       <c r="C7" s="75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18" customHeight="1">
       <c r="B8" s="71"/>
       <c r="C8" s="75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18" customHeight="1">
       <c r="B9" s="71"/>
       <c r="C9" s="75" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18" customHeight="1">
       <c r="B10" s="71"/>
       <c r="C10" s="75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18" customHeight="1">
       <c r="B11" s="71"/>
       <c r="C11" s="75" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18" customHeight="1">
       <c r="B12" s="71"/>
       <c r="C12" s="75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18" customHeight="1">
       <c r="B13" s="71"/>
       <c r="C13" s="75" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18" customHeight="1">
       <c r="B14" s="71"/>
       <c r="C14" s="75" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18" customHeight="1">
       <c r="B15" s="71"/>
       <c r="C15" s="75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18" customHeight="1">
       <c r="B16" s="71"/>
       <c r="C16" s="74" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18" customHeight="1">
       <c r="B17" s="71"/>
       <c r="C17" s="74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18" customHeight="1">
       <c r="B18" s="71"/>
       <c r="C18" s="74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18" customHeight="1">
       <c r="B19" s="71"/>
       <c r="C19" s="75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18" customHeight="1">
       <c r="B20" s="77"/>
       <c r="C20" s="74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18" customHeight="1">
       <c r="B21" s="77"/>
       <c r="C21" s="74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>241</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18" customHeight="1">
       <c r="B22" s="77"/>
       <c r="C22" s="74" t="s">
-        <v>244</v>
+        <v>608</v>
       </c>
       <c r="D22" s="76" t="s">
-        <v>249</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18" customHeight="1">
       <c r="B23" s="77"/>
       <c r="C23" s="74" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="18" customHeight="1">
       <c r="B24" s="77"/>
       <c r="C24" s="74" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18" customHeight="1">
       <c r="B25" s="77"/>
       <c r="C25" s="74" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D25" s="76" t="s">
         <v>248</v>
@@ -13079,290 +13860,299 @@
     </row>
     <row r="26" spans="2:4" ht="18" customHeight="1">
       <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="76"/>
+      <c r="C26" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="27" spans="2:4" ht="18" customHeight="1">
-      <c r="B27" s="15">
+      <c r="B27" s="77"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="76"/>
+    </row>
+    <row r="28" spans="2:4" ht="18" customHeight="1">
+      <c r="B28" s="15">
         <v>2</v>
       </c>
-      <c r="C27" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="77"/>
-      <c r="C28" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="78" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="18" customHeight="1">
+      <c r="C28" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="77"/>
       <c r="C29" s="74" t="s">
-        <v>471</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>182</v>
+        <v>179</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="18" customHeight="1">
       <c r="B30" s="77"/>
       <c r="C30" s="74" t="s">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="18" customHeight="1">
       <c r="B31" s="77"/>
       <c r="C31" s="74" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18" customHeight="1">
       <c r="B32" s="77"/>
       <c r="C32" s="74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" customHeight="1">
       <c r="B33" s="77"/>
       <c r="C33" s="74" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="18" customHeight="1">
       <c r="B34" s="77"/>
       <c r="C34" s="74" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="18" customHeight="1">
       <c r="B35" s="77"/>
       <c r="C35" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="18" customHeight="1">
       <c r="B36" s="77"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="76"/>
+      <c r="C36" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="37" spans="2:4" ht="18" customHeight="1">
-      <c r="B37" s="15">
+      <c r="B37" s="77"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="76"/>
+    </row>
+    <row r="38" spans="2:4" ht="18" customHeight="1">
+      <c r="B38" s="15">
         <v>3</v>
       </c>
-      <c r="C37" s="69" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="18" customHeight="1">
-      <c r="B38" s="77"/>
-      <c r="C38" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>208</v>
+      <c r="C38" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="18" customHeight="1">
       <c r="B39" s="77"/>
       <c r="C39" s="74" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="D39" s="76" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18" customHeight="1">
       <c r="B40" s="77"/>
       <c r="C40" s="74" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="D40" s="76" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18" customHeight="1">
       <c r="B41" s="77"/>
       <c r="C41" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D41" s="76" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18" customHeight="1">
       <c r="B42" s="77"/>
       <c r="C42" s="74" t="s">
-        <v>201</v>
+        <v>619</v>
       </c>
       <c r="D42" s="76" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18" customHeight="1">
       <c r="B43" s="77"/>
       <c r="C43" s="74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D43" s="76" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18" customHeight="1">
       <c r="B44" s="77"/>
       <c r="C44" s="74" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D44" s="76" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="18" customHeight="1">
       <c r="B45" s="77"/>
       <c r="C45" s="74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="18" customHeight="1">
       <c r="B46" s="77"/>
       <c r="C46" s="74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D46" s="76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="18" customHeight="1">
-      <c r="B47" s="79"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>214</v>
+        <v>203</v>
+      </c>
+      <c r="D47" s="76" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="18" customHeight="1">
-      <c r="B48" s="77"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="76" t="s">
-        <v>217</v>
+        <v>204</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1">
       <c r="B49" s="77"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="76"/>
+      <c r="C49" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1">
-      <c r="B50" s="15">
+      <c r="B50" s="77"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="76"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1">
+      <c r="B51" s="15">
         <v>3</v>
       </c>
-      <c r="C50" s="69" t="s">
-        <v>489</v>
-      </c>
-      <c r="D50" s="70" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1">
-      <c r="B51" s="77"/>
-      <c r="C51" s="74" t="s">
-        <v>486</v>
-      </c>
-      <c r="D51" s="76" t="s">
-        <v>491</v>
+      <c r="C51" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1">
       <c r="B52" s="77"/>
       <c r="C52" s="74" t="s">
-        <v>503</v>
+        <v>639</v>
       </c>
       <c r="D52" s="76" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="18" customHeight="1">
       <c r="B53" s="77"/>
       <c r="C53" s="74" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D53" s="76" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="18" customHeight="1">
       <c r="B54" s="77"/>
       <c r="C54" s="74" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D54" s="76" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="18" customHeight="1">
       <c r="B55" s="77"/>
       <c r="C55" s="74" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D55" s="76" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="18" customHeight="1">
       <c r="B56" s="77"/>
       <c r="C56" s="74" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D56" s="76" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="18" customHeight="1">
       <c r="B57" s="77"/>
       <c r="C57" s="74" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D57" s="76" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" thickBot="1">
-      <c r="B58" s="21"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="18" customHeight="1">
+      <c r="B58" s="77"/>
+      <c r="C58" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="D58" s="76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="18" customHeight="1" thickBot="1">
+      <c r="B59" s="21"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
